--- a/excel-portfolio-project.xlsx
+++ b/excel-portfolio-project.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adminstrator\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adminstrator\Downloads\Excel-Call-Centre-Dashboard-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BF4A78-F314-4E0B-91D5-18E158CE335B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4748884A-44F7-4A08-B7C7-AC6E0B11D4A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{26D4546B-D2A1-4444-8EAF-A6228F96F0C1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{26D4546B-D2A1-4444-8EAF-A6228F96F0C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
@@ -20,8 +20,8 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$B$3:$H$1003</definedName>
-    <definedName name="_xlcn.WorksheetConnection_sampledataexcelportfolioprojectWIP.xlsxcalls1" hidden="1">calls[]</definedName>
-    <definedName name="_xlcn.WorksheetConnection_sampledataexcelportfolioprojectWIP.xlsxcustomers1" hidden="1">customers[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_sampledataexcelportfolioprojectWIP.xlsxcalls" hidden="1">calls[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_sampledataexcelportfolioprojectWIP.xlsxcustomers" hidden="1">customers[]</definedName>
     <definedName name="Slicer_Representative">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -102,7 +102,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="calls" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_sampledataexcelportfolioprojectWIP.xlsxcalls1"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_sampledataexcelportfolioprojectWIP.xlsxcalls"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -111,7 +111,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="customers">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_sampledataexcelportfolioprojectWIP.xlsxcustomers1"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_sampledataexcelportfolioprojectWIP.xlsxcustomers"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -3870,6 +3870,13 @@
   <dxfs count="19">
     <dxf>
       <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill>
           <bgColor theme="8" tint="0.59996337778862885"/>
         </patternFill>
@@ -3884,13 +3891,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -4375,7 +4375,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[sample-data-excel-portfolio-project-WIP-3.xlsx]Pivots!weekday trend</c:name>
+    <c:name>[excel-portfolio-project.xlsx]Pivots!weekday trend</c:name>
     <c:fmtId val="14"/>
   </c:pivotSource>
   <c:chart>
@@ -4862,7 +4862,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[sample-data-excel-portfolio-project-WIP-3.xlsx]Pivots!monthly trend</c:name>
+    <c:name>[excel-portfolio-project.xlsx]Pivots!monthly trend</c:name>
     <c:fmtId val="7"/>
   </c:pivotSource>
   <c:chart>
@@ -6580,7 +6580,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[sample-data-excel-portfolio-project-WIP-3.xlsx]Pivots!PivotTable7</c:name>
+    <c:name>[excel-portfolio-project.xlsx]Pivots!PivotTable7</c:name>
     <c:fmtId val="4"/>
   </c:pivotSource>
   <c:chart>
@@ -7475,7 +7475,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[sample-data-excel-portfolio-project-WIP-3.xlsx]Pivots!rep satisfaction</c:name>
+    <c:name>[excel-portfolio-project.xlsx]Pivots!rep satisfaction</c:name>
     <c:fmtId val="9"/>
   </c:pivotSource>
   <c:chart>
@@ -14447,907 +14447,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EB8D6922-7FAF-4F25-A8E0-C56214890CC5}" name="PivotTable7" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="5">
-  <location ref="A77:D82" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="3">
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="2">
-        <item x="0"/>
-        <item x="1"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="1"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField fld="2" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="4" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotHierarchies count="26">
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="15"/>
-  </rowHierarchiesUsage>
-  <colHierarchiesUsage count="1">
-    <colHierarchyUsage hierarchyUsage="13"/>
-  </colHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings>
-        <x15:activeTabTopLevelEntity name="[customers]"/>
-        <x15:activeTabTopLevelEntity name="[calls]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{81EA14AD-4410-404C-82D3-3B6BAF252D81}" name="reps pivot" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A52:C58" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="3">
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField fld="1" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField fld="2" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotHierarchies count="26">
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="3"/>
-  </rowHierarchiesUsage>
-  <colHierarchiesUsage count="1">
-    <colHierarchyUsage hierarchyUsage="-2"/>
-  </colHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_sample-data-excel-portfolio-project-WIP.xlsx!calls">
-        <x15:activeTabTopLevelEntity name="[calls]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D2CD4453-FCF8-486B-9E17-ACDD77A6F064}" name="weekday trend" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="16">
-  <location ref="G24:H32" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="3">
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" sortType="ascending" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="7">
-        <item x="3"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="2"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField fld="1" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="14" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotHierarchies count="26">
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1">
-      <members count="1" level="1">
-        <member name="[calls].[Representative].&amp;[R03]"/>
-      </members>
-    </pivotHierarchy>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="8"/>
-  </rowHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_sample-data-excel-portfolio-project-WIP.xlsx!calls">
-        <x15:activeTabTopLevelEntity name="[calls]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0C38822C-2C39-404C-97BF-B2D1E464A57F}" name="rep amounts" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="10">
-  <location ref="A106:G125" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField axis="axisCol" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="15">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="1"/>
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="18">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="10"/>
-    </i>
-    <i r="1">
-      <x v="11"/>
-    </i>
-    <i r="1">
-      <x v="12"/>
-    </i>
-    <i r="1">
-      <x v="13"/>
-    </i>
-    <i r="1">
-      <x v="14"/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="0"/>
-  </colFields>
-  <colItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField fld="3" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotHierarchies count="26">
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="2">
-    <rowHierarchyUsage hierarchyUsage="15"/>
-    <rowHierarchyUsage hierarchyUsage="12"/>
-  </rowHierarchiesUsage>
-  <colHierarchiesUsage count="1">
-    <colHierarchyUsage hierarchyUsage="3"/>
-  </colHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings>
-        <x15:activeTabTopLevelEntity name="[customers]"/>
-        <x15:activeTabTopLevelEntity name="[calls]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DB170B03-18FF-4A20-9608-DFE98DD55073}" name="rep pivot" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
-  <location ref="A9:E10" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="6">
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </colItems>
-  <dataFields count="5">
-    <dataField fld="0" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField fld="1" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField fld="2" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField fld="3" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField fld="4" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotHierarchies count="26">
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1">
-      <members count="1" level="1">
-        <member name="[calls].[Representative].&amp;[R03]"/>
-      </members>
-    </pivotHierarchy>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <colHierarchiesUsage count="1">
-    <colHierarchyUsage hierarchyUsage="-2"/>
-  </colHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_sample-data-excel-portfolio-project-WIP.xlsx!calls">
-        <x15:activeTabTopLevelEntity name="[calls]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DEA357A8-E417-4627-99CD-984F7D3EFB9B}" name="summary pivot" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
-  <location ref="A3:E4" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="5">
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </colItems>
-  <dataFields count="5">
-    <dataField fld="0" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField fld="1" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField fld="2" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField fld="3" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField fld="4" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotHierarchies count="26">
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <colHierarchiesUsage count="1">
-    <colHierarchyUsage hierarchyUsage="-2"/>
-  </colHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_sample-data-excel-portfolio-project-WIP.xlsx!calls">
-        <x15:activeTabTopLevelEntity name="[calls]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B65369A8-BF59-42A6-B786-124B29C9742E}" name="rep satisfaction" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="10">
-  <location ref="A89:B96" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="3">
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="6">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-      </items>
-    </pivotField>
-    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="9" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotHierarchies count="26">
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1">
-      <members count="1" level="1">
-        <member name="[calls].[Representative].&amp;[R03]"/>
-      </members>
-    </pivotHierarchy>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="10"/>
-  </rowHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings>
-        <x15:activeTabTopLevelEntity name="[customers]"/>
-        <x15:activeTabTopLevelEntity name="[calls]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1C9F9C35-4996-4E90-8995-C81557209E46}" name="selected rep" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
-  <location ref="A65:A66" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="1">
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="1">
-        <item s="1" x="0"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="1">
-    <i>
-      <x/>
-    </i>
-  </rowItems>
-  <formats count="1">
-    <format dxfId="1">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotHierarchies count="26">
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="3"/>
-  </rowHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings>
-        <x15:activeTabTopLevelEntity name="[calls]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{39D1421B-6B25-4B80-9BB9-BAB56B809F17}" name="monthly trend" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="8">
   <location ref="A24:C37" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
@@ -15546,6 +14645,907 @@
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
       <x15:pivotTableUISettings sourceDataName="WorksheetConnection_sample-data-excel-portfolio-project-WIP.xlsx!calls">
+        <x15:activeTabTopLevelEntity name="[calls]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0C38822C-2C39-404C-97BF-B2D1E464A57F}" name="rep amounts" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="10">
+  <location ref="A106:G125" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisCol" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="1"/>
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="18">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="14"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField fld="3" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotHierarchies count="26">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="2">
+    <rowHierarchyUsage hierarchyUsage="15"/>
+    <rowHierarchyUsage hierarchyUsage="12"/>
+  </rowHierarchiesUsage>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="3"/>
+  </colHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings>
+        <x15:activeTabTopLevelEntity name="[customers]"/>
+        <x15:activeTabTopLevelEntity name="[calls]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DB170B03-18FF-4A20-9608-DFE98DD55073}" name="rep pivot" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
+  <location ref="A9:E10" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="6">
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <dataFields count="5">
+    <dataField fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField fld="1" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField fld="2" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField fld="3" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField fld="4" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotHierarchies count="26">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1">
+      <members count="1" level="1">
+        <member name="[calls].[Representative].&amp;[R03]"/>
+      </members>
+    </pivotHierarchy>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="-2"/>
+  </colHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_sample-data-excel-portfolio-project-WIP.xlsx!calls">
+        <x15:activeTabTopLevelEntity name="[calls]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DEA357A8-E417-4627-99CD-984F7D3EFB9B}" name="summary pivot" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
+  <location ref="A3:E4" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="5">
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <dataFields count="5">
+    <dataField fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField fld="1" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField fld="2" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField fld="3" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField fld="4" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotHierarchies count="26">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="-2"/>
+  </colHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_sample-data-excel-portfolio-project-WIP.xlsx!calls">
+        <x15:activeTabTopLevelEntity name="[calls]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EB8D6922-7FAF-4F25-A8E0-C56214890CC5}" name="PivotTable7" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="5">
+  <location ref="A77:D82" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="2">
+        <item x="0"/>
+        <item x="1"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField fld="2" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="4" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotHierarchies count="26">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="15"/>
+  </rowHierarchiesUsage>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="13"/>
+  </colHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings>
+        <x15:activeTabTopLevelEntity name="[customers]"/>
+        <x15:activeTabTopLevelEntity name="[calls]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{81EA14AD-4410-404C-82D3-3B6BAF252D81}" name="reps pivot" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A52:C58" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField fld="1" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField fld="2" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotHierarchies count="26">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="3"/>
+  </rowHierarchiesUsage>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="-2"/>
+  </colHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_sample-data-excel-portfolio-project-WIP.xlsx!calls">
+        <x15:activeTabTopLevelEntity name="[calls]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B65369A8-BF59-42A6-B786-124B29C9742E}" name="rep satisfaction" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="10">
+  <location ref="A89:B96" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+      </items>
+    </pivotField>
+    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="9" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotHierarchies count="26">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1">
+      <members count="1" level="1">
+        <member name="[calls].[Representative].&amp;[R03]"/>
+      </members>
+    </pivotHierarchy>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="10"/>
+  </rowHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings>
+        <x15:activeTabTopLevelEntity name="[customers]"/>
+        <x15:activeTabTopLevelEntity name="[calls]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D2CD4453-FCF8-486B-9E17-ACDD77A6F064}" name="weekday trend" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="16">
+  <location ref="G24:H32" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" sortType="ascending" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="7">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="2"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField fld="1" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="14" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotHierarchies count="26">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1">
+      <members count="1" level="1">
+        <member name="[calls].[Representative].&amp;[R03]"/>
+      </members>
+    </pivotHierarchy>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="8"/>
+  </rowHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_sample-data-excel-portfolio-project-WIP.xlsx!calls">
+        <x15:activeTabTopLevelEntity name="[calls]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1C9F9C35-4996-4E90-8995-C81557209E46}" name="selected rep" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
+  <location ref="A65:A66" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="1">
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="1">
+        <item s="1" x="0"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="1">
+    <i>
+      <x/>
+    </i>
+  </rowItems>
+  <formats count="1">
+    <format dxfId="0">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotHierarchies count="26">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="3"/>
+  </rowHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings>
         <x15:activeTabTopLevelEntity name="[calls]"/>
       </x15:pivotTableUISettings>
     </ext>
@@ -55217,8 +55217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2C07433-8076-437D-9DEF-A62CA47B823E}">
   <dimension ref="A2:AA41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA8" sqref="AA8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -57855,7 +57855,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79C58293-5D98-49E6-AECB-82BF78A22E13}">
   <dimension ref="E2:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
